--- a/data/output/best_policy_1.xlsx
+++ b/data/output/best_policy_1.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0.9999999999999999</v>
@@ -415,13 +415,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
         <v>0.9999999999999999</v>
@@ -435,19 +435,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -455,19 +455,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,19 +515,39 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999999</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1733.30296666679</v>
+        <v>198.7940049407577</v>
       </c>
       <c r="D3">
-        <v>1955.901412695242</v>
+        <v>307.7733010816846</v>
       </c>
       <c r="E3">
-        <v>1992.916420939907</v>
+        <v>398.1640235555129</v>
       </c>
       <c r="F3">
-        <v>1998.807631897881</v>
+        <v>472.6576998712546</v>
       </c>
       <c r="G3">
-        <v>1999.717405796048</v>
+        <v>533.7611737451858</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -617,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2929.17431606603</v>
+        <v>258.9804627737485</v>
       </c>
       <c r="D4">
-        <v>3743.691486434244</v>
+        <v>424.4394981368682</v>
       </c>
       <c r="E4">
-        <v>3946.186043608468</v>
+        <v>564.5605888567957</v>
       </c>
       <c r="F4">
-        <v>3989.304790577874</v>
+        <v>689.1548706949687</v>
       </c>
       <c r="G4">
-        <v>3997.656405115098</v>
+        <v>804.0456604673792</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -640,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3583.54593517403</v>
+        <v>271.4246748809719</v>
       </c>
       <c r="D5">
-        <v>5210.813226214013</v>
+        <v>469.5484425392577</v>
       </c>
       <c r="E5">
-        <v>5787.675416754804</v>
+        <v>649.8447203851725</v>
       </c>
       <c r="F5">
-        <v>5949.185602450711</v>
+        <v>812.9411172474455</v>
       </c>
       <c r="G5">
-        <v>5988.152512703497</v>
+        <v>958.7384072333771</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -663,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3874.185129561272</v>
+        <v>272.905934034571</v>
       </c>
       <c r="D6">
-        <v>6270.016236339117</v>
+        <v>482.6804806424218</v>
       </c>
       <c r="E6">
-        <v>7418.525130563821</v>
+        <v>685.6111556703712</v>
       </c>
       <c r="F6">
-        <v>7832.6726993297</v>
+        <v>875.1281840061553</v>
       </c>
       <c r="G6">
-        <v>7955.978756115692</v>
+        <v>1051.943296772996</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -686,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3981.581467037832</v>
+        <v>272.4991430613434</v>
       </c>
       <c r="D7">
-        <v>6939.974072055195</v>
+        <v>484.6876898900233</v>
       </c>
       <c r="E7">
-        <v>8751.407451751556</v>
+        <v>696.7296057340047</v>
       </c>
       <c r="F7">
-        <v>9572.542886880776</v>
+        <v>903.3101017611349</v>
       </c>
       <c r="G7">
-        <v>9870.822334138607</v>
+        <v>1100.020183552962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -709,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4015.12583570063</v>
+        <v>271.8322226652136</v>
       </c>
       <c r="D8">
-        <v>7312.767882992054</v>
+        <v>483.9625006313097</v>
       </c>
       <c r="E8">
-        <v>9746.975797680003</v>
+        <v>698.4226444552584</v>
       </c>
       <c r="F8">
-        <v>11096.10828311666</v>
+        <v>912.0872769915612</v>
       </c>
       <c r="G8">
-        <v>11685.98154231272</v>
+        <v>1121.441932739259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -732,19 +752,42 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4023.866539482021</v>
+        <v>271.1354357789158</v>
       </c>
       <c r="D9">
-        <v>7496.499906394422</v>
+        <v>482.6780289610703</v>
       </c>
       <c r="E9">
-        <v>10424.28647655855</v>
+        <v>697.2614683425279</v>
       </c>
       <c r="F9">
-        <v>12348.04960305892</v>
+        <v>913.040397419657</v>
       </c>
       <c r="G9">
-        <v>13344.53832753436</v>
+        <v>1127.921684449783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>270.4357096725119</v>
+      </c>
+      <c r="D10">
+        <v>481.2954323850188</v>
+      </c>
+      <c r="E10">
+        <v>695.3653493707484</v>
+      </c>
+      <c r="F10">
+        <v>911.3093670786824</v>
+      </c>
+      <c r="G10">
+        <v>1127.93822970623</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_1.xlsx
+++ b/data/output/best_policy_1.xlsx
@@ -418,10 +418,10 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E3">
         <v>0.9999999999999999</v>
@@ -441,13 +441,13 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -467,7 +467,7 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.6</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>198.7940049407577</v>
+        <v>698.6216542702073</v>
       </c>
       <c r="D3">
-        <v>307.7733010816846</v>
+        <v>1149.853402317823</v>
       </c>
       <c r="E3">
-        <v>398.1640235555129</v>
+        <v>1517.940937075963</v>
       </c>
       <c r="F3">
-        <v>472.6576998712546</v>
+        <v>1816.08648310716</v>
       </c>
       <c r="G3">
-        <v>533.7611737451858</v>
+        <v>2056.2942247109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>258.9804627737485</v>
+        <v>894.4955840603466</v>
       </c>
       <c r="D4">
-        <v>424.4394981368682</v>
+        <v>1491.310983377311</v>
       </c>
       <c r="E4">
-        <v>564.5605888567957</v>
+        <v>2059.232200616515</v>
       </c>
       <c r="F4">
-        <v>689.1548706949687</v>
+        <v>2585.889861011094</v>
       </c>
       <c r="G4">
-        <v>804.0456604673792</v>
+        <v>3064.523154160803</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>271.4246748809719</v>
+        <v>932.669174293826</v>
       </c>
       <c r="D5">
-        <v>469.5484425392577</v>
+        <v>1601.567453439696</v>
       </c>
       <c r="E5">
-        <v>649.8447203851725</v>
+        <v>2234.958167722974</v>
       </c>
       <c r="F5">
-        <v>812.9411172474455</v>
+        <v>2858.298938741797</v>
       </c>
       <c r="G5">
-        <v>958.7384072333771</v>
+        <v>3462.615194152384</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>272.905934034571</v>
+        <v>937.8647971355346</v>
       </c>
       <c r="D6">
-        <v>482.6804806424218</v>
+        <v>1639.059256872718</v>
       </c>
       <c r="E6">
-        <v>685.6111556703712</v>
+        <v>2324.961568711143</v>
       </c>
       <c r="F6">
-        <v>875.1281840061553</v>
+        <v>2986.062527091191</v>
       </c>
       <c r="G6">
-        <v>1051.943296772996</v>
+        <v>3631.997790462993</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>272.4991430613434</v>
+        <v>937.88820695435</v>
       </c>
       <c r="D7">
-        <v>484.6876898900233</v>
+        <v>1645.887684355172</v>
       </c>
       <c r="E7">
-        <v>696.7296057340047</v>
+        <v>2353.084765305972</v>
       </c>
       <c r="F7">
-        <v>903.3101017611349</v>
+        <v>3050.654661781226</v>
       </c>
       <c r="G7">
-        <v>1100.020183552962</v>
+        <v>3732.482596226572</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>271.8322226652136</v>
+        <v>937.2626553078003</v>
       </c>
       <c r="D8">
-        <v>483.9625006313097</v>
+        <v>1645.955922896692</v>
       </c>
       <c r="E8">
-        <v>698.4226444552584</v>
+        <v>2358.994020252095</v>
       </c>
       <c r="F8">
-        <v>912.0872769915612</v>
+        <v>3071.413332261442</v>
       </c>
       <c r="G8">
-        <v>1121.441932739259</v>
+        <v>3777.579058520339</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>271.1354357789158</v>
+        <v>936.569248924528</v>
       </c>
       <c r="D9">
-        <v>482.6780289610703</v>
+        <v>1644.782164028644</v>
       </c>
       <c r="E9">
-        <v>697.2614683425279</v>
+        <v>2358.703945120254</v>
       </c>
       <c r="F9">
-        <v>913.040397419657</v>
+        <v>3075.676006701961</v>
       </c>
       <c r="G9">
-        <v>1127.921684449783</v>
+        <v>3792.354122754125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>270.4357096725119</v>
+        <v>935.8697612662937</v>
       </c>
       <c r="D10">
-        <v>481.2954323850188</v>
+        <v>1643.412819243308</v>
       </c>
       <c r="E10">
-        <v>695.3653493707484</v>
+        <v>2356.959284344161</v>
       </c>
       <c r="F10">
-        <v>911.3093670786824</v>
+        <v>3074.713957233278</v>
       </c>
       <c r="G10">
-        <v>1127.93822970623</v>
+        <v>3794.808566983747</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_1.xlsx
+++ b/data/output/best_policy_1.xlsx
@@ -395,16 +395,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D2">
-        <v>0.9999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F2">
         <v>0.9999999999999999</v>
@@ -415,19 +415,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F3">
-        <v>0.9999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -435,19 +435,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -455,19 +455,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,19 +515,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -535,19 +535,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>698.6216542702073</v>
+        <v>853.4451833070425</v>
       </c>
       <c r="D3">
-        <v>1149.853402317823</v>
+        <v>1313.29094620488</v>
       </c>
       <c r="E3">
-        <v>1517.940937075963</v>
+        <v>1653.024763795212</v>
       </c>
       <c r="F3">
-        <v>1816.08648310716</v>
+        <v>1910.277649086499</v>
       </c>
       <c r="G3">
-        <v>2056.2942247109</v>
+        <v>2117.716944035893</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>894.4955840603466</v>
+        <v>1070.744238540799</v>
       </c>
       <c r="D4">
-        <v>1491.310983377311</v>
+        <v>1823.37914010141</v>
       </c>
       <c r="E4">
-        <v>2059.232200616515</v>
+        <v>2442.963342506897</v>
       </c>
       <c r="F4">
-        <v>2585.889861011094</v>
+        <v>2962.937763188761</v>
       </c>
       <c r="G4">
-        <v>3064.523154160803</v>
+        <v>3394.710867725914</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>932.669174293826</v>
+        <v>1116.345468571738</v>
       </c>
       <c r="D5">
-        <v>1601.567453439696</v>
+        <v>1986.729381952449</v>
       </c>
       <c r="E5">
-        <v>2234.958167722974</v>
+        <v>2794.459438861234</v>
       </c>
       <c r="F5">
-        <v>2858.298938741797</v>
+        <v>3513.62909695237</v>
       </c>
       <c r="G5">
-        <v>3462.615194152384</v>
+        <v>4141.416153416725</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>937.8647971355346</v>
+        <v>1122.647948100247</v>
       </c>
       <c r="D6">
-        <v>1639.059256872718</v>
+        <v>2026.125062894051</v>
       </c>
       <c r="E6">
-        <v>2324.961568711143</v>
+        <v>2911.096352007338</v>
       </c>
       <c r="F6">
-        <v>2986.062527091191</v>
+        <v>3754.084523029255</v>
       </c>
       <c r="G6">
-        <v>3631.997790462993</v>
+        <v>4537.071722063797</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>937.88820695435</v>
+        <v>1122.80474056055</v>
       </c>
       <c r="D7">
-        <v>1645.887684355172</v>
+        <v>2033.056474116892</v>
       </c>
       <c r="E7">
-        <v>2353.084765305972</v>
+        <v>2942.230612633454</v>
       </c>
       <c r="F7">
-        <v>3050.654661781226</v>
+        <v>3837.372583269932</v>
       </c>
       <c r="G7">
-        <v>3732.482596226572</v>
+        <v>4704.250183519056</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>937.2626553078003</v>
+        <v>1122.192664411902</v>
       </c>
       <c r="D8">
-        <v>1645.955922896692</v>
+        <v>2033.09453698574</v>
       </c>
       <c r="E8">
-        <v>2358.994020252095</v>
+        <v>2948.064610242071</v>
       </c>
       <c r="F8">
-        <v>3071.413332261442</v>
+        <v>3860.649510628154</v>
       </c>
       <c r="G8">
-        <v>3777.579058520339</v>
+        <v>4763.421037791025</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>936.569248924528</v>
+        <v>1121.500429211431</v>
       </c>
       <c r="D9">
-        <v>1644.782164028644</v>
+        <v>2031.908753389209</v>
       </c>
       <c r="E9">
-        <v>2358.703945120254</v>
+        <v>2947.610944309746</v>
       </c>
       <c r="F9">
-        <v>3075.676006701961</v>
+        <v>3864.739087206814</v>
       </c>
       <c r="G9">
-        <v>3792.354122754125</v>
+        <v>4780.00613407314</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>935.8697612662937</v>
+        <v>1120.801030825045</v>
       </c>
       <c r="D10">
-        <v>1643.412819243308</v>
+        <v>2030.536778880393</v>
       </c>
       <c r="E10">
-        <v>2356.959284344161</v>
+        <v>2945.812485320987</v>
       </c>
       <c r="F10">
-        <v>3074.713957233278</v>
+        <v>3863.551059659276</v>
       </c>
       <c r="G10">
-        <v>3794.808566983747</v>
+        <v>4782.212105273165</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_1.xlsx
+++ b/data/output/best_policy_1.xlsx
@@ -367,13 +367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -389,8 +389,20 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -404,24 +416,36 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="E2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
         <v>0.7</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E3">
         <v>0.7999999999999999</v>
@@ -429,8 +453,20 @@
       <c r="F3">
         <v>0.8999999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -447,10 +483,22 @@
         <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -469,85 +517,17 @@
       <c r="F5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.6</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <v>0.7</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.6</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-      <c r="D7">
-        <v>0.7</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="F7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.6</v>
-      </c>
-      <c r="C8">
-        <v>0.7</v>
-      </c>
-      <c r="D8">
-        <v>0.7</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="F8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>0.7</v>
-      </c>
-      <c r="E9">
-        <v>0.7</v>
-      </c>
-      <c r="F9">
-        <v>0.7</v>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.7999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -557,13 +537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -582,8 +562,20 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -605,8 +597,20 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -614,22 +618,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>853.4451833070425</v>
+        <v>825.7796471333322</v>
       </c>
       <c r="D3">
-        <v>1313.29094620488</v>
+        <v>1284.75609286227</v>
       </c>
       <c r="E3">
-        <v>1653.024763795212</v>
+        <v>1631.646865489128</v>
       </c>
       <c r="F3">
-        <v>1910.277649086499</v>
+        <v>1897.539543239232</v>
       </c>
       <c r="G3">
-        <v>2117.716944035893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2112.364785382152</v>
+      </c>
+      <c r="H3">
+        <v>2285.706805605113</v>
+      </c>
+      <c r="I3">
+        <v>2425.440317866353</v>
+      </c>
+      <c r="J3">
+        <v>2537.992625434911</v>
+      </c>
+      <c r="K3">
+        <v>2628.588912512074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -637,22 +653,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1070.744238540799</v>
+        <v>1014.530516441531</v>
       </c>
       <c r="D4">
-        <v>1823.37914010141</v>
+        <v>1747.002030657043</v>
       </c>
       <c r="E4">
-        <v>2442.963342506897</v>
+        <v>2367.19237161274</v>
       </c>
       <c r="F4">
-        <v>2962.937763188761</v>
+        <v>2892.246295631969</v>
       </c>
       <c r="G4">
-        <v>3394.710867725914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>3339.053843996398</v>
+      </c>
+      <c r="H4">
+        <v>3722.33122474528</v>
+      </c>
+      <c r="I4">
+        <v>4048.532817263852</v>
+      </c>
+      <c r="J4">
+        <v>4330.306126737076</v>
+      </c>
+      <c r="K4">
+        <v>4576.997125794085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -660,22 +688,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1116.345468571738</v>
+        <v>1048.177344972206</v>
       </c>
       <c r="D5">
-        <v>1986.729381952449</v>
+        <v>1885.767945278154</v>
       </c>
       <c r="E5">
-        <v>2794.459438861234</v>
+        <v>2672.570718054333</v>
       </c>
       <c r="F5">
-        <v>3513.62909695237</v>
+        <v>3383.846728158036</v>
       </c>
       <c r="G5">
-        <v>4141.416153416725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4014.884185823118</v>
+      </c>
+      <c r="H5">
+        <v>4580.443911212914</v>
+      </c>
+      <c r="I5">
+        <v>5081.997486180033</v>
+      </c>
+      <c r="J5">
+        <v>5531.669298429042</v>
+      </c>
+      <c r="K5">
+        <v>5934.337543683298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -683,111 +723,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1122.647948100247</v>
+        <v>1053.065483385705</v>
       </c>
       <c r="D6">
-        <v>2026.125062894051</v>
+        <v>1916.665866089918</v>
       </c>
       <c r="E6">
-        <v>2911.096352007338</v>
+        <v>2769.497428914788</v>
       </c>
       <c r="F6">
-        <v>3754.084523029255</v>
+        <v>3589.306288664112</v>
       </c>
       <c r="G6">
-        <v>4537.071722063797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1122.80474056055</v>
-      </c>
-      <c r="D7">
-        <v>2033.056474116892</v>
-      </c>
-      <c r="E7">
-        <v>2942.230612633454</v>
-      </c>
-      <c r="F7">
-        <v>3837.372583269932</v>
-      </c>
-      <c r="G7">
-        <v>4704.250183519056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1122.192664411902</v>
-      </c>
-      <c r="D8">
-        <v>2033.09453698574</v>
-      </c>
-      <c r="E8">
-        <v>2948.064610242071</v>
-      </c>
-      <c r="F8">
-        <v>3860.649510628154</v>
-      </c>
-      <c r="G8">
-        <v>4763.421037791025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1121.500429211431</v>
-      </c>
-      <c r="D9">
-        <v>2031.908753389209</v>
-      </c>
-      <c r="E9">
-        <v>2947.610944309746</v>
-      </c>
-      <c r="F9">
-        <v>3864.739087206814</v>
-      </c>
-      <c r="G9">
-        <v>4780.00613407314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1120.801030825045</v>
-      </c>
-      <c r="D10">
-        <v>2030.536778880393</v>
-      </c>
-      <c r="E10">
-        <v>2945.812485320987</v>
-      </c>
-      <c r="F10">
-        <v>3863.551059659276</v>
-      </c>
-      <c r="G10">
-        <v>4782.212105273165</v>
+        <v>4358.615570590845</v>
+      </c>
+      <c r="H6">
+        <v>5066.811122865097</v>
+      </c>
+      <c r="I6">
+        <v>5712.317217887028</v>
+      </c>
+      <c r="J6">
+        <v>6304.893648908902</v>
+      </c>
+      <c r="K6">
+        <v>6846.877835281603</v>
       </c>
     </row>
   </sheetData>
